--- a/US/data/CBS/NFIB/Actual Compensation Changes.xlsx
+++ b/US/data/CBS/NFIB/Actual Compensation Changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{891368A0-1A19-4178-AD63-5AB729701CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E046FAF-D1BE-464F-BEC7-C533553530D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="3600" windowWidth="14145" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="486">
   <si>
     <t>Month/Year</t>
   </si>
@@ -82,6 +82,9 @@
     <t>1986/12/1</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>1987/1/1</t>
   </si>
   <si>
@@ -127,27 +130,27 @@
     <t>1987/12/1</t>
   </si>
   <si>
+    <t>1988/1/1</t>
+  </si>
+  <si>
+    <t>1988/2/1</t>
+  </si>
+  <si>
+    <t>1988/3/1</t>
+  </si>
+  <si>
+    <t>1988/4/1</t>
+  </si>
+  <si>
+    <t>1988/5/1</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
-    <t>1988/1/1</t>
-  </si>
-  <si>
-    <t>1988/2/1</t>
-  </si>
-  <si>
-    <t>1988/3/1</t>
-  </si>
-  <si>
-    <t>1988/4/1</t>
-  </si>
-  <si>
-    <t>1988/5/1</t>
-  </si>
-  <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
     <t>1988/7/1</t>
   </si>
   <si>
@@ -163,15 +166,15 @@
     <t>1988/10/1</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>1988/11/1</t>
   </si>
   <si>
     <t>1988/12/1</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>1989/1/1</t>
   </si>
   <si>
@@ -280,21 +283,21 @@
     <t>1991/10/1</t>
   </si>
   <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
     <t>1991/12/1</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>1992/1/1</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>1992/2/1</t>
   </si>
   <si>
@@ -322,9 +325,6 @@
     <t>1992/9/1</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>1992/10/1</t>
   </si>
   <si>
@@ -472,141 +472,141 @@
     <t>1996/10/1</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>1996/11/1</t>
   </si>
   <si>
     <t>1996/12/1</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+  </si>
+  <si>
+    <t>1997/2/1</t>
+  </si>
+  <si>
+    <t>1997/3/1</t>
+  </si>
+  <si>
+    <t>1997/4/1</t>
+  </si>
+  <si>
+    <t>1997/5/1</t>
+  </si>
+  <si>
+    <t>1997/6/1</t>
+  </si>
+  <si>
+    <t>1997/7/1</t>
+  </si>
+  <si>
+    <t>1997/8/1</t>
+  </si>
+  <si>
+    <t>1997/9/1</t>
+  </si>
+  <si>
+    <t>1997/10/1</t>
+  </si>
+  <si>
+    <t>1997/11/1</t>
+  </si>
+  <si>
+    <t>1997/12/1</t>
+  </si>
+  <si>
+    <t>1998/1/1</t>
+  </si>
+  <si>
+    <t>1998/2/1</t>
+  </si>
+  <si>
+    <t>1998/3/1</t>
+  </si>
+  <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
+    <t>1998/5/1</t>
+  </si>
+  <si>
+    <t>1998/6/1</t>
+  </si>
+  <si>
+    <t>1998/7/1</t>
+  </si>
+  <si>
+    <t>1998/8/1</t>
+  </si>
+  <si>
+    <t>1998/9/1</t>
+  </si>
+  <si>
+    <t>1998/10/1</t>
+  </si>
+  <si>
+    <t>1998/11/1</t>
+  </si>
+  <si>
+    <t>1998/12/1</t>
+  </si>
+  <si>
+    <t>1999/1/1</t>
+  </si>
+  <si>
+    <t>1999/2/1</t>
+  </si>
+  <si>
+    <t>1999/3/1</t>
+  </si>
+  <si>
+    <t>1999/4/1</t>
+  </si>
+  <si>
+    <t>1999/5/1</t>
+  </si>
+  <si>
+    <t>1999/6/1</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1999/7/1</t>
+  </si>
+  <si>
+    <t>1999/8/1</t>
+  </si>
+  <si>
+    <t>1999/9/1</t>
+  </si>
+  <si>
+    <t>1999/10/1</t>
+  </si>
+  <si>
+    <t>1999/11/1</t>
+  </si>
+  <si>
+    <t>1999/12/1</t>
+  </si>
+  <si>
+    <t>2000/1/1</t>
+  </si>
+  <si>
+    <t>2000/2/1</t>
+  </si>
+  <si>
+    <t>2000/3/1</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
-    <t>1997/1/1</t>
-  </si>
-  <si>
-    <t>1997/2/1</t>
-  </si>
-  <si>
-    <t>1997/3/1</t>
-  </si>
-  <si>
-    <t>1997/4/1</t>
-  </si>
-  <si>
-    <t>1997/5/1</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1997/6/1</t>
-  </si>
-  <si>
-    <t>1997/7/1</t>
-  </si>
-  <si>
-    <t>1997/8/1</t>
-  </si>
-  <si>
-    <t>1997/9/1</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1997/10/1</t>
-  </si>
-  <si>
-    <t>1997/11/1</t>
-  </si>
-  <si>
-    <t>1997/12/1</t>
-  </si>
-  <si>
-    <t>1998/1/1</t>
-  </si>
-  <si>
-    <t>1998/2/1</t>
-  </si>
-  <si>
-    <t>1998/3/1</t>
-  </si>
-  <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
-    <t>1998/5/1</t>
-  </si>
-  <si>
-    <t>1998/6/1</t>
-  </si>
-  <si>
-    <t>1998/7/1</t>
-  </si>
-  <si>
-    <t>1998/8/1</t>
-  </si>
-  <si>
-    <t>1998/9/1</t>
-  </si>
-  <si>
-    <t>1998/10/1</t>
-  </si>
-  <si>
-    <t>1998/11/1</t>
-  </si>
-  <si>
-    <t>1998/12/1</t>
-  </si>
-  <si>
-    <t>1999/1/1</t>
-  </si>
-  <si>
-    <t>1999/2/1</t>
-  </si>
-  <si>
-    <t>1999/3/1</t>
-  </si>
-  <si>
-    <t>1999/4/1</t>
-  </si>
-  <si>
-    <t>1999/5/1</t>
-  </si>
-  <si>
-    <t>1999/6/1</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1999/7/1</t>
-  </si>
-  <si>
-    <t>1999/8/1</t>
-  </si>
-  <si>
-    <t>1999/9/1</t>
-  </si>
-  <si>
-    <t>1999/10/1</t>
-  </si>
-  <si>
-    <t>1999/11/1</t>
-  </si>
-  <si>
-    <t>1999/12/1</t>
-  </si>
-  <si>
-    <t>2000/1/1</t>
-  </si>
-  <si>
-    <t>2000/2/1</t>
-  </si>
-  <si>
-    <t>2000/3/1</t>
-  </si>
-  <si>
     <t>2000/4/1</t>
   </si>
   <si>
@@ -925,109 +925,109 @@
     <t>2008/12/1</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2009/1/1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2009/2/1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2009/3/1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2009/4/1</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
+    <t>2009/6/1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
+    <t>2009/8/1</t>
+  </si>
+  <si>
+    <t>2009/9/1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2009/10/1</t>
+  </si>
+  <si>
+    <t>2009/11/1</t>
+  </si>
+  <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>2010/3/1</t>
+  </si>
+  <si>
+    <t>2010/4/1</t>
+  </si>
+  <si>
+    <t>2010/5/1</t>
+  </si>
+  <si>
+    <t>2010/6/1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2010/7/1</t>
+  </si>
+  <si>
+    <t>2010/8/1</t>
+  </si>
+  <si>
+    <t>2010/9/1</t>
+  </si>
+  <si>
+    <t>2010/10/1</t>
+  </si>
+  <si>
+    <t>2010/11/1</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>2009/1/1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2009/2/1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2009/3/1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2009/4/1</t>
-  </si>
-  <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>2009/6/1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
-    <t>2009/8/1</t>
-  </si>
-  <si>
-    <t>2009/9/1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2009/10/1</t>
-  </si>
-  <si>
-    <t>2009/11/1</t>
-  </si>
-  <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>2010/3/1</t>
-  </si>
-  <si>
-    <t>2010/4/1</t>
-  </si>
-  <si>
-    <t>2010/5/1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2010/6/1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2010/7/1</t>
-  </si>
-  <si>
-    <t>2010/8/1</t>
-  </si>
-  <si>
-    <t>2010/9/1</t>
-  </si>
-  <si>
-    <t>2010/10/1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2010/11/1</t>
-  </si>
-  <si>
     <t>2010/12/1</t>
   </si>
   <si>
-    <t>8</t>
+    <t>7</t>
   </si>
   <si>
     <t>2011/1/1</t>
@@ -1039,9 +1039,6 @@
     <t>2011/3/1</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>2011/4/1</t>
   </si>
   <si>
@@ -1333,51 +1330,51 @@
     <t>2018/12/1</t>
   </si>
   <si>
+    <t>2019/1/1</t>
+  </si>
+  <si>
+    <t>2019/2/1</t>
+  </si>
+  <si>
+    <t>2019/3/1</t>
+  </si>
+  <si>
+    <t>2019/4/1</t>
+  </si>
+  <si>
+    <t>2019/5/1</t>
+  </si>
+  <si>
+    <t>2019/6/1</t>
+  </si>
+  <si>
+    <t>2019/7/1</t>
+  </si>
+  <si>
+    <t>2019/8/1</t>
+  </si>
+  <si>
+    <t>2019/9/1</t>
+  </si>
+  <si>
+    <t>2019/10/1</t>
+  </si>
+  <si>
+    <t>2019/11/1</t>
+  </si>
+  <si>
+    <t>2019/12/1</t>
+  </si>
+  <si>
+    <t>2020/1/1</t>
+  </si>
+  <si>
+    <t>2020/2/1</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
-    <t>2019/1/1</t>
-  </si>
-  <si>
-    <t>2019/2/1</t>
-  </si>
-  <si>
-    <t>2019/3/1</t>
-  </si>
-  <si>
-    <t>2019/4/1</t>
-  </si>
-  <si>
-    <t>2019/5/1</t>
-  </si>
-  <si>
-    <t>2019/6/1</t>
-  </si>
-  <si>
-    <t>2019/7/1</t>
-  </si>
-  <si>
-    <t>2019/8/1</t>
-  </si>
-  <si>
-    <t>2019/9/1</t>
-  </si>
-  <si>
-    <t>2019/10/1</t>
-  </si>
-  <si>
-    <t>2019/11/1</t>
-  </si>
-  <si>
-    <t>2019/12/1</t>
-  </si>
-  <si>
-    <t>2020/1/1</t>
-  </si>
-  <si>
-    <t>2020/2/1</t>
-  </si>
-  <si>
     <t>2020/3/1</t>
   </si>
   <si>
@@ -1441,22 +1438,46 @@
     <t>41</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
-    <t>44</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>2021/12/1</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
     <t>2022/2/1</t>
   </si>
   <si>
-    <t>45</t>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B432"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1953,7 +1974,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,12 +1990,12 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1982,7 +2003,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1990,7 +2011,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1998,15 +2019,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -2014,7 +2035,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -2022,7 +2043,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -2030,31 +2051,31 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -2062,10 +2083,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,7 +2102,7 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2089,7 +2110,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,7 +2118,7 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2105,7 +2126,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2113,12 +2134,12 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -2126,159 +2147,159 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2286,39 +2307,39 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -2326,23 +2347,23 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -2350,15 +2371,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -2366,39 +2387,39 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -2406,7 +2427,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -2414,15 +2435,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -2430,10 +2451,10 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,20 +2462,20 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
         <v>90</v>
@@ -2462,15 +2483,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
         <v>90</v>
@@ -2478,7 +2499,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
         <v>90</v>
@@ -2486,15 +2507,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -2502,7 +2523,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -2510,7 +2531,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -2518,10 +2539,10 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2529,7 +2550,7 @@
         <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,7 +2566,7 @@
         <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,7 +2574,7 @@
         <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2561,7 +2582,7 @@
         <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2577,7 +2598,7 @@
         <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,7 +2614,7 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,7 +2638,7 @@
         <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2625,7 +2646,7 @@
         <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +2662,7 @@
         <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +2670,7 @@
         <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2689,7 +2710,7 @@
         <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2697,7 +2718,7 @@
         <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2742,7 @@
         <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2729,7 +2750,7 @@
         <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2737,7 +2758,7 @@
         <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2745,7 +2766,7 @@
         <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2753,7 +2774,7 @@
         <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2761,7 +2782,7 @@
         <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2769,7 +2790,7 @@
         <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2798,7 @@
         <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2814,7 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +2822,7 @@
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2809,7 +2830,7 @@
         <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +2838,7 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,7 +2846,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2833,7 +2854,7 @@
         <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2849,7 +2870,7 @@
         <v>141</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2878,7 @@
         <v>142</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2886,7 @@
         <v>143</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,7 +2894,7 @@
         <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2881,7 +2902,7 @@
         <v>145</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2910,7 @@
         <v>146</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2918,7 @@
         <v>147</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2926,7 @@
         <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,63 +2934,63 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,7 +2998,7 @@
         <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2985,7 +3006,7 @@
         <v>160</v>
       </c>
       <c r="B140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2993,7 +3014,7 @@
         <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,247 +3022,247 @@
         <v>162</v>
       </c>
       <c r="B142" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B151" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B153" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B157" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B162" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" t="s">
         <v>184</v>
-      </c>
-      <c r="B163" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B167" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B168" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172" t="s">
         <v>194</v>
-      </c>
-      <c r="B172" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3249,7 +3270,7 @@
         <v>195</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +3286,7 @@
         <v>198</v>
       </c>
       <c r="B175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,7 +3294,7 @@
         <v>199</v>
       </c>
       <c r="B176" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,7 +3302,7 @@
         <v>200</v>
       </c>
       <c r="B177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,7 +3310,7 @@
         <v>201</v>
       </c>
       <c r="B178" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3297,7 +3318,7 @@
         <v>202</v>
       </c>
       <c r="B179" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3305,7 +3326,7 @@
         <v>203</v>
       </c>
       <c r="B180" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3313,7 +3334,7 @@
         <v>204</v>
       </c>
       <c r="B181" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3321,7 +3342,7 @@
         <v>205</v>
       </c>
       <c r="B182" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,7 +3350,7 @@
         <v>206</v>
       </c>
       <c r="B183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3337,7 +3358,7 @@
         <v>207</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3345,7 +3366,7 @@
         <v>208</v>
       </c>
       <c r="B185" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3353,7 +3374,7 @@
         <v>209</v>
       </c>
       <c r="B186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,7 +3382,7 @@
         <v>210</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3369,7 +3390,7 @@
         <v>211</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3377,7 +3398,7 @@
         <v>212</v>
       </c>
       <c r="B189" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3385,7 +3406,7 @@
         <v>213</v>
       </c>
       <c r="B190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3393,7 +3414,7 @@
         <v>214</v>
       </c>
       <c r="B191" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3409,7 +3430,7 @@
         <v>216</v>
       </c>
       <c r="B193" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3417,7 +3438,7 @@
         <v>217</v>
       </c>
       <c r="B194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,7 +3454,7 @@
         <v>219</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3449,7 +3470,7 @@
         <v>221</v>
       </c>
       <c r="B198" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3489,7 +3510,7 @@
         <v>226</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,7 +3526,7 @@
         <v>228</v>
       </c>
       <c r="B205" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,7 +3574,7 @@
         <v>234</v>
       </c>
       <c r="B211" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,7 +3582,7 @@
         <v>235</v>
       </c>
       <c r="B212" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3585,7 +3606,7 @@
         <v>238</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3622,7 @@
         <v>240</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3630,7 @@
         <v>241</v>
       </c>
       <c r="B218" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +3638,7 @@
         <v>242</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,7 +3646,7 @@
         <v>243</v>
       </c>
       <c r="B220" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3633,7 +3654,7 @@
         <v>244</v>
       </c>
       <c r="B221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +3670,7 @@
         <v>246</v>
       </c>
       <c r="B223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +3678,7 @@
         <v>247</v>
       </c>
       <c r="B224" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3694,7 @@
         <v>249</v>
       </c>
       <c r="B226" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3702,7 @@
         <v>250</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +3710,7 @@
         <v>251</v>
       </c>
       <c r="B228" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +3718,7 @@
         <v>252</v>
       </c>
       <c r="B229" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3726,7 @@
         <v>253</v>
       </c>
       <c r="B230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3734,7 @@
         <v>254</v>
       </c>
       <c r="B231" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3742,7 @@
         <v>255</v>
       </c>
       <c r="B232" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +3750,7 @@
         <v>256</v>
       </c>
       <c r="B233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +3758,7 @@
         <v>257</v>
       </c>
       <c r="B234" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +3766,7 @@
         <v>258</v>
       </c>
       <c r="B235" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3774,7 @@
         <v>259</v>
       </c>
       <c r="B236" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +3782,7 @@
         <v>260</v>
       </c>
       <c r="B237" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +3790,7 @@
         <v>261</v>
       </c>
       <c r="B238" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +3798,7 @@
         <v>262</v>
       </c>
       <c r="B239" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3785,7 +3806,7 @@
         <v>263</v>
       </c>
       <c r="B240" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3793,7 +3814,7 @@
         <v>264</v>
       </c>
       <c r="B241" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,7 +3822,7 @@
         <v>265</v>
       </c>
       <c r="B242" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,7 +3830,7 @@
         <v>266</v>
       </c>
       <c r="B243" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,7 +3838,7 @@
         <v>267</v>
       </c>
       <c r="B244" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3846,7 @@
         <v>268</v>
       </c>
       <c r="B245" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,7 +3854,7 @@
         <v>269</v>
       </c>
       <c r="B246" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3849,7 +3870,7 @@
         <v>271</v>
       </c>
       <c r="B248" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3857,7 +3878,7 @@
         <v>272</v>
       </c>
       <c r="B249" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3865,7 +3886,7 @@
         <v>273</v>
       </c>
       <c r="B250" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3873,7 +3894,7 @@
         <v>274</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3881,7 +3902,7 @@
         <v>275</v>
       </c>
       <c r="B252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3889,7 +3910,7 @@
         <v>276</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3897,7 +3918,7 @@
         <v>277</v>
       </c>
       <c r="B254" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3905,7 +3926,7 @@
         <v>278</v>
       </c>
       <c r="B255" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3913,7 +3934,7 @@
         <v>279</v>
       </c>
       <c r="B256" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3921,7 +3942,7 @@
         <v>280</v>
       </c>
       <c r="B257" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3929,7 +3950,7 @@
         <v>281</v>
       </c>
       <c r="B258" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3937,7 +3958,7 @@
         <v>282</v>
       </c>
       <c r="B259" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3945,7 +3966,7 @@
         <v>283</v>
       </c>
       <c r="B260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3953,7 +3974,7 @@
         <v>284</v>
       </c>
       <c r="B261" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3961,7 +3982,7 @@
         <v>285</v>
       </c>
       <c r="B262" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3969,7 +3990,7 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3977,7 +3998,7 @@
         <v>287</v>
       </c>
       <c r="B264" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3985,7 +4006,7 @@
         <v>288</v>
       </c>
       <c r="B265" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,7 +4014,7 @@
         <v>289</v>
       </c>
       <c r="B266" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4009,7 +4030,7 @@
         <v>291</v>
       </c>
       <c r="B268" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4017,7 +4038,7 @@
         <v>292</v>
       </c>
       <c r="B269" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4025,7 +4046,7 @@
         <v>293</v>
       </c>
       <c r="B270" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4065,7 +4086,7 @@
         <v>298</v>
       </c>
       <c r="B275" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4161,7 +4182,7 @@
         <v>316</v>
       </c>
       <c r="B287" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4177,12 +4198,12 @@
         <v>318</v>
       </c>
       <c r="B289" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B290" t="s">
         <v>307</v>
@@ -4190,15 +4211,15 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B291" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B292" t="s">
         <v>307</v>
@@ -4206,7 +4227,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B293" t="s">
         <v>315</v>
@@ -4214,10 +4235,10 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B294" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4257,15 +4278,15 @@
         <v>331</v>
       </c>
       <c r="B299" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>332</v>
+      </c>
+      <c r="B300" t="s">
         <v>333</v>
-      </c>
-      <c r="B300" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,7 +4302,7 @@
         <v>336</v>
       </c>
       <c r="B302" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4289,7 +4310,7 @@
         <v>337</v>
       </c>
       <c r="B303" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4297,92 +4318,92 @@
         <v>338</v>
       </c>
       <c r="B304" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B305" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B306" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B307" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>342</v>
+      </c>
+      <c r="B308" t="s">
         <v>343</v>
-      </c>
-      <c r="B308" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B309" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B310" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B311" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>347</v>
+      </c>
+      <c r="B312" t="s">
         <v>348</v>
-      </c>
-      <c r="B312" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B313" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B314" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B315" t="s">
         <v>14</v>
@@ -4390,7 +4411,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B316" t="s">
         <v>14</v>
@@ -4398,7 +4419,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B317" t="s">
         <v>14</v>
@@ -4406,15 +4427,15 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B318" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B319" t="s">
         <v>14</v>
@@ -4422,15 +4443,15 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B320" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B321" t="s">
         <v>90</v>
@@ -4438,7 +4459,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B322" t="s">
         <v>14</v>
@@ -4446,39 +4467,39 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B323" t="s">
-        <v>349</v>
+        <v>93</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B324" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B325" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B326" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B327" t="s">
         <v>14</v>
@@ -4486,39 +4507,39 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B328" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B329" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B330" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B331" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B332" t="s">
         <v>14</v>
@@ -4526,15 +4547,15 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B333" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B334" t="s">
         <v>16</v>
@@ -4542,31 +4563,31 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B335" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B336" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B337" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B338" t="s">
         <v>11</v>
@@ -4574,7 +4595,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B339" t="s">
         <v>3</v>
@@ -4582,7 +4603,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B340" t="s">
         <v>7</v>
@@ -4590,31 +4611,31 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B341" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B342" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B343" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -4622,15 +4643,15 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B345" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B346" t="s">
         <v>11</v>
@@ -4638,55 +4659,55 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B347" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B348" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B349" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B350" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B351" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B352" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -4694,23 +4715,23 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B354" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B355" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -4718,7 +4739,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
@@ -4726,7 +4747,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
@@ -4734,71 +4755,71 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B359" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B360" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B361" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B362" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B363" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B364" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B365" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B366" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B367" t="s">
         <v>7</v>
@@ -4806,39 +4827,39 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B368" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B369" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B370" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B371" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -4846,191 +4867,191 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B373" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B374" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B375" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B376" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B377" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B378" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B379" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B380" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B381" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B382" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B383" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B384" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B385" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B386" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B387" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B388" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B389" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>426</v>
+      </c>
+      <c r="B390" t="s">
         <v>427</v>
-      </c>
-      <c r="B390" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B391" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B392" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B393" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>431</v>
+      </c>
+      <c r="B394" t="s">
         <v>432</v>
-      </c>
-      <c r="B394" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B395" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B396" t="s">
         <v>197</v>
@@ -5038,39 +5059,39 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B397" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B398" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B399" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B400" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B401" t="s">
         <v>197</v>
@@ -5078,7 +5099,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B402" t="s">
         <v>197</v>
@@ -5086,95 +5107,95 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B403" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B404" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B405" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B406" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B407" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B408" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B409" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B410" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B411" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B412" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B413" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B414" t="s">
         <v>14</v>
@@ -5182,23 +5203,23 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B415" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B416" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B417" t="s">
         <v>11</v>
@@ -5206,7 +5227,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -5214,63 +5235,63 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B419" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B420" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B421" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B422" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B423" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B424" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B425" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B426" t="s">
         <v>197</v>
@@ -5278,56 +5299,95 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>466</v>
+      </c>
+      <c r="B427" t="s">
         <v>467</v>
-      </c>
-      <c r="B427" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>468</v>
+      </c>
+      <c r="B428" t="s">
         <v>469</v>
-      </c>
-      <c r="B428" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>470</v>
+      </c>
+      <c r="B429" t="s">
         <v>471</v>
-      </c>
-      <c r="B429" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>472</v>
+      </c>
+      <c r="B430" t="s">
         <v>473</v>
-      </c>
-      <c r="B430" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>474</v>
+      </c>
+      <c r="B431" t="s">
         <v>475</v>
-      </c>
-      <c r="B431" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>476</v>
+      </c>
+      <c r="B432" t="s">
         <v>477</v>
       </c>
-      <c r="B432" t="s">
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
         <v>478</v>
+      </c>
+      <c r="B433" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>480</v>
+      </c>
+      <c r="B434" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>482</v>
+      </c>
+      <c r="B435" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>483</v>
+      </c>
+      <c r="B436" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>484</v>
+      </c>
+      <c r="B437" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Actual Compensation Changes.xlsx
+++ b/US/data/CBS/NFIB/Actual Compensation Changes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E046FAF-D1BE-464F-BEC7-C533553530D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68CD1333-6971-45F4-8042-A6C6A461158A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="487">
   <si>
     <t>Month/Year</t>
   </si>
@@ -52,429 +52,429 @@
     <t>1986/5/1</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>1986/6/1</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>1986/7/1</t>
   </si>
   <si>
     <t>1986/8/1</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1986/10/1</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
+    <t>1986/12/1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1987/1/1</t>
+  </si>
+  <si>
+    <t>1987/2/1</t>
+  </si>
+  <si>
+    <t>1987/3/1</t>
+  </si>
+  <si>
+    <t>1987/4/1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1987/5/1</t>
+  </si>
+  <si>
+    <t>1987/6/1</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
+    <t>1987/9/1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1987/10/1</t>
+  </si>
+  <si>
+    <t>1987/11/1</t>
+  </si>
+  <si>
+    <t>1987/12/1</t>
+  </si>
+  <si>
+    <t>1988/1/1</t>
+  </si>
+  <si>
+    <t>1988/2/1</t>
+  </si>
+  <si>
+    <t>1988/3/1</t>
+  </si>
+  <si>
+    <t>1988/4/1</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1988/5/1</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1988/7/1</t>
+  </si>
+  <si>
+    <t>1988/8/1</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1988/9/1</t>
+  </si>
+  <si>
+    <t>1988/10/1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1988/11/1</t>
+  </si>
+  <si>
+    <t>1988/12/1</t>
+  </si>
+  <si>
+    <t>1989/1/1</t>
+  </si>
+  <si>
+    <t>1989/2/1</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1989/3/1</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1989/4/1</t>
+  </si>
+  <si>
+    <t>1989/5/1</t>
+  </si>
+  <si>
+    <t>1989/6/1</t>
+  </si>
+  <si>
+    <t>1989/7/1</t>
+  </si>
+  <si>
+    <t>1989/8/1</t>
+  </si>
+  <si>
+    <t>1989/9/1</t>
+  </si>
+  <si>
+    <t>1989/10/1</t>
+  </si>
+  <si>
+    <t>1989/11/1</t>
+  </si>
+  <si>
+    <t>1989/12/1</t>
+  </si>
+  <si>
+    <t>1990/1/1</t>
+  </si>
+  <si>
+    <t>1990/2/1</t>
+  </si>
+  <si>
+    <t>1990/3/1</t>
+  </si>
+  <si>
+    <t>1990/4/1</t>
+  </si>
+  <si>
+    <t>1990/5/1</t>
+  </si>
+  <si>
+    <t>1990/6/1</t>
+  </si>
+  <si>
+    <t>1990/7/1</t>
+  </si>
+  <si>
+    <t>1990/8/1</t>
+  </si>
+  <si>
+    <t>1990/9/1</t>
+  </si>
+  <si>
+    <t>1990/10/1</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>1986/9/1</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
-    <t>1986/12/1</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1987/1/1</t>
-  </si>
-  <si>
-    <t>1987/2/1</t>
-  </si>
-  <si>
-    <t>1987/3/1</t>
-  </si>
-  <si>
-    <t>1987/4/1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1987/5/1</t>
-  </si>
-  <si>
-    <t>1987/6/1</t>
-  </si>
-  <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1987/9/1</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1987/10/1</t>
-  </si>
-  <si>
-    <t>1987/11/1</t>
-  </si>
-  <si>
-    <t>1987/12/1</t>
-  </si>
-  <si>
-    <t>1988/1/1</t>
-  </si>
-  <si>
-    <t>1988/2/1</t>
-  </si>
-  <si>
-    <t>1988/3/1</t>
-  </si>
-  <si>
-    <t>1988/4/1</t>
-  </si>
-  <si>
-    <t>1988/5/1</t>
-  </si>
-  <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1988/7/1</t>
-  </si>
-  <si>
-    <t>1988/8/1</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1988/9/1</t>
-  </si>
-  <si>
-    <t>1988/10/1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1988/11/1</t>
-  </si>
-  <si>
-    <t>1988/12/1</t>
-  </si>
-  <si>
-    <t>1989/1/1</t>
-  </si>
-  <si>
-    <t>1989/2/1</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>1989/3/1</t>
-  </si>
-  <si>
-    <t>1989/4/1</t>
-  </si>
-  <si>
-    <t>1989/5/1</t>
-  </si>
-  <si>
-    <t>1989/6/1</t>
-  </si>
-  <si>
-    <t>1989/7/1</t>
-  </si>
-  <si>
-    <t>1989/8/1</t>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
+  </si>
+  <si>
+    <t>1992/10/1</t>
+  </si>
+  <si>
+    <t>1992/11/1</t>
+  </si>
+  <si>
+    <t>1992/12/1</t>
+  </si>
+  <si>
+    <t>1993/1/1</t>
+  </si>
+  <si>
+    <t>1993/2/1</t>
+  </si>
+  <si>
+    <t>1993/3/1</t>
+  </si>
+  <si>
+    <t>1993/4/1</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>1993/6/1</t>
+  </si>
+  <si>
+    <t>1993/7/1</t>
+  </si>
+  <si>
+    <t>1993/8/1</t>
+  </si>
+  <si>
+    <t>1993/9/1</t>
+  </si>
+  <si>
+    <t>1993/10/1</t>
+  </si>
+  <si>
+    <t>1993/11/1</t>
+  </si>
+  <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
+    <t>1994/4/1</t>
+  </si>
+  <si>
+    <t>1994/5/1</t>
+  </si>
+  <si>
+    <t>1994/6/1</t>
+  </si>
+  <si>
+    <t>1994/7/1</t>
+  </si>
+  <si>
+    <t>1994/8/1</t>
+  </si>
+  <si>
+    <t>1994/9/1</t>
+  </si>
+  <si>
+    <t>1994/10/1</t>
+  </si>
+  <si>
+    <t>1994/11/1</t>
+  </si>
+  <si>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
+    <t>1995/4/1</t>
+  </si>
+  <si>
+    <t>1995/5/1</t>
+  </si>
+  <si>
+    <t>1995/6/1</t>
+  </si>
+  <si>
+    <t>1995/7/1</t>
+  </si>
+  <si>
+    <t>1995/8/1</t>
+  </si>
+  <si>
+    <t>1995/9/1</t>
+  </si>
+  <si>
+    <t>1995/10/1</t>
+  </si>
+  <si>
+    <t>1995/11/1</t>
+  </si>
+  <si>
+    <t>1995/12/1</t>
+  </si>
+  <si>
+    <t>1996/1/1</t>
+  </si>
+  <si>
+    <t>1996/2/1</t>
+  </si>
+  <si>
+    <t>1996/3/1</t>
+  </si>
+  <si>
+    <t>1996/4/1</t>
+  </si>
+  <si>
+    <t>1996/5/1</t>
+  </si>
+  <si>
+    <t>1996/6/1</t>
+  </si>
+  <si>
+    <t>1996/7/1</t>
+  </si>
+  <si>
+    <t>1996/8/1</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>1989/9/1</t>
-  </si>
-  <si>
-    <t>1989/10/1</t>
-  </si>
-  <si>
-    <t>1989/11/1</t>
-  </si>
-  <si>
-    <t>1989/12/1</t>
-  </si>
-  <si>
-    <t>1990/1/1</t>
-  </si>
-  <si>
-    <t>1990/2/1</t>
-  </si>
-  <si>
-    <t>1990/3/1</t>
-  </si>
-  <si>
-    <t>1990/4/1</t>
-  </si>
-  <si>
-    <t>1990/5/1</t>
-  </si>
-  <si>
-    <t>1990/6/1</t>
-  </si>
-  <si>
-    <t>1990/7/1</t>
-  </si>
-  <si>
-    <t>1990/8/1</t>
-  </si>
-  <si>
-    <t>1990/9/1</t>
-  </si>
-  <si>
-    <t>1990/10/1</t>
-  </si>
-  <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
-  </si>
-  <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
-    <t>1992/10/1</t>
-  </si>
-  <si>
-    <t>1992/11/1</t>
-  </si>
-  <si>
-    <t>1992/12/1</t>
-  </si>
-  <si>
-    <t>1993/1/1</t>
-  </si>
-  <si>
-    <t>1993/2/1</t>
-  </si>
-  <si>
-    <t>1993/3/1</t>
-  </si>
-  <si>
-    <t>1993/4/1</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>1993/6/1</t>
-  </si>
-  <si>
-    <t>1993/7/1</t>
-  </si>
-  <si>
-    <t>1993/8/1</t>
-  </si>
-  <si>
-    <t>1993/9/1</t>
-  </si>
-  <si>
-    <t>1993/10/1</t>
-  </si>
-  <si>
-    <t>1993/11/1</t>
-  </si>
-  <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
-    <t>1994/4/1</t>
-  </si>
-  <si>
-    <t>1994/5/1</t>
-  </si>
-  <si>
-    <t>1994/6/1</t>
-  </si>
-  <si>
-    <t>1994/7/1</t>
-  </si>
-  <si>
-    <t>1994/8/1</t>
-  </si>
-  <si>
-    <t>1994/9/1</t>
-  </si>
-  <si>
-    <t>1994/10/1</t>
-  </si>
-  <si>
-    <t>1994/11/1</t>
-  </si>
-  <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
-    <t>1995/4/1</t>
-  </si>
-  <si>
-    <t>1995/5/1</t>
-  </si>
-  <si>
-    <t>1995/6/1</t>
-  </si>
-  <si>
-    <t>1995/7/1</t>
-  </si>
-  <si>
-    <t>1995/8/1</t>
-  </si>
-  <si>
-    <t>1995/9/1</t>
-  </si>
-  <si>
-    <t>1995/10/1</t>
-  </si>
-  <si>
-    <t>1995/11/1</t>
-  </si>
-  <si>
-    <t>1995/12/1</t>
-  </si>
-  <si>
-    <t>1996/1/1</t>
-  </si>
-  <si>
-    <t>1996/2/1</t>
-  </si>
-  <si>
-    <t>1996/3/1</t>
-  </si>
-  <si>
-    <t>1996/4/1</t>
-  </si>
-  <si>
-    <t>1996/5/1</t>
-  </si>
-  <si>
-    <t>1996/6/1</t>
-  </si>
-  <si>
-    <t>1996/7/1</t>
-  </si>
-  <si>
-    <t>1996/8/1</t>
-  </si>
-  <si>
     <t>1996/9/1</t>
   </si>
   <si>
     <t>1996/10/1</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>1996/11/1</t>
   </si>
   <si>
@@ -613,723 +613,726 @@
     <t>2000/5/1</t>
   </si>
   <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
+    <t>2000/12/1</t>
+  </si>
+  <si>
+    <t>2001/1/1</t>
+  </si>
+  <si>
+    <t>2001/2/1</t>
+  </si>
+  <si>
+    <t>2001/3/1</t>
+  </si>
+  <si>
+    <t>2001/4/1</t>
+  </si>
+  <si>
+    <t>2001/5/1</t>
+  </si>
+  <si>
+    <t>2001/6/1</t>
+  </si>
+  <si>
+    <t>2001/7/1</t>
+  </si>
+  <si>
+    <t>2001/8/1</t>
+  </si>
+  <si>
+    <t>2001/9/1</t>
+  </si>
+  <si>
+    <t>2001/10/1</t>
+  </si>
+  <si>
+    <t>2001/11/1</t>
+  </si>
+  <si>
+    <t>2001/12/1</t>
+  </si>
+  <si>
+    <t>2002/1/1</t>
+  </si>
+  <si>
+    <t>2002/2/1</t>
+  </si>
+  <si>
+    <t>2002/3/1</t>
+  </si>
+  <si>
+    <t>2002/4/1</t>
+  </si>
+  <si>
+    <t>2002/5/1</t>
+  </si>
+  <si>
+    <t>2002/6/1</t>
+  </si>
+  <si>
+    <t>2002/7/1</t>
+  </si>
+  <si>
+    <t>2002/8/1</t>
+  </si>
+  <si>
+    <t>2002/9/1</t>
+  </si>
+  <si>
+    <t>2002/10/1</t>
+  </si>
+  <si>
+    <t>2002/11/1</t>
+  </si>
+  <si>
+    <t>2002/12/1</t>
+  </si>
+  <si>
+    <t>2003/1/1</t>
+  </si>
+  <si>
+    <t>2003/2/1</t>
+  </si>
+  <si>
+    <t>2003/3/1</t>
+  </si>
+  <si>
+    <t>2003/4/1</t>
+  </si>
+  <si>
+    <t>2003/5/1</t>
+  </si>
+  <si>
+    <t>2003/6/1</t>
+  </si>
+  <si>
+    <t>2003/7/1</t>
+  </si>
+  <si>
+    <t>2003/8/1</t>
+  </si>
+  <si>
+    <t>2003/9/1</t>
+  </si>
+  <si>
+    <t>2003/10/1</t>
+  </si>
+  <si>
+    <t>2003/11/1</t>
+  </si>
+  <si>
+    <t>2003/12/1</t>
+  </si>
+  <si>
+    <t>2004/1/1</t>
+  </si>
+  <si>
+    <t>2004/2/1</t>
+  </si>
+  <si>
+    <t>2004/3/1</t>
+  </si>
+  <si>
+    <t>2004/4/1</t>
+  </si>
+  <si>
+    <t>2004/5/1</t>
+  </si>
+  <si>
+    <t>2004/6/1</t>
+  </si>
+  <si>
+    <t>2004/7/1</t>
+  </si>
+  <si>
+    <t>2004/8/1</t>
+  </si>
+  <si>
+    <t>2004/9/1</t>
+  </si>
+  <si>
+    <t>2004/10/1</t>
+  </si>
+  <si>
+    <t>2004/11/1</t>
+  </si>
+  <si>
+    <t>2004/12/1</t>
+  </si>
+  <si>
+    <t>2005/1/1</t>
+  </si>
+  <si>
+    <t>2005/2/1</t>
+  </si>
+  <si>
+    <t>2005/3/1</t>
+  </si>
+  <si>
+    <t>2005/4/1</t>
+  </si>
+  <si>
+    <t>2005/5/1</t>
+  </si>
+  <si>
+    <t>2005/6/1</t>
+  </si>
+  <si>
+    <t>2005/7/1</t>
+  </si>
+  <si>
+    <t>2005/8/1</t>
+  </si>
+  <si>
+    <t>2005/9/1</t>
+  </si>
+  <si>
+    <t>2005/10/1</t>
+  </si>
+  <si>
+    <t>2005/11/1</t>
+  </si>
+  <si>
+    <t>2005/12/1</t>
+  </si>
+  <si>
+    <t>2006/1/1</t>
+  </si>
+  <si>
+    <t>2006/2/1</t>
+  </si>
+  <si>
+    <t>2006/3/1</t>
+  </si>
+  <si>
+    <t>2006/4/1</t>
+  </si>
+  <si>
+    <t>2006/5/1</t>
+  </si>
+  <si>
+    <t>2006/6/1</t>
+  </si>
+  <si>
+    <t>2006/7/1</t>
+  </si>
+  <si>
+    <t>2006/8/1</t>
+  </si>
+  <si>
+    <t>2006/9/1</t>
+  </si>
+  <si>
+    <t>2006/10/1</t>
+  </si>
+  <si>
+    <t>2006/11/1</t>
+  </si>
+  <si>
+    <t>2006/12/1</t>
+  </si>
+  <si>
+    <t>2007/1/1</t>
+  </si>
+  <si>
+    <t>2007/2/1</t>
+  </si>
+  <si>
+    <t>2007/3/1</t>
+  </si>
+  <si>
+    <t>2007/4/1</t>
+  </si>
+  <si>
+    <t>2007/5/1</t>
+  </si>
+  <si>
+    <t>2007/6/1</t>
+  </si>
+  <si>
+    <t>2007/7/1</t>
+  </si>
+  <si>
+    <t>2007/8/1</t>
+  </si>
+  <si>
+    <t>2007/9/1</t>
+  </si>
+  <si>
+    <t>2007/10/1</t>
+  </si>
+  <si>
+    <t>2007/11/1</t>
+  </si>
+  <si>
+    <t>2007/12/1</t>
+  </si>
+  <si>
+    <t>2008/1/1</t>
+  </si>
+  <si>
+    <t>2008/2/1</t>
+  </si>
+  <si>
+    <t>2008/3/1</t>
+  </si>
+  <si>
+    <t>2008/4/1</t>
+  </si>
+  <si>
+    <t>2008/5/1</t>
+  </si>
+  <si>
+    <t>2008/6/1</t>
+  </si>
+  <si>
+    <t>2008/7/1</t>
+  </si>
+  <si>
+    <t>2008/8/1</t>
+  </si>
+  <si>
+    <t>2008/9/1</t>
+  </si>
+  <si>
+    <t>2008/10/1</t>
+  </si>
+  <si>
+    <t>2008/11/1</t>
+  </si>
+  <si>
+    <t>2008/12/1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2009/1/1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2009/2/1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2009/3/1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2009/4/1</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>2009/6/1</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
+    <t>2009/8/1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2009/9/1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2009/10/1</t>
+  </si>
+  <si>
+    <t>2009/11/1</t>
+  </si>
+  <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>2010/3/1</t>
+  </si>
+  <si>
+    <t>2010/4/1</t>
+  </si>
+  <si>
+    <t>2010/5/1</t>
+  </si>
+  <si>
+    <t>2010/6/1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2010/7/1</t>
+  </si>
+  <si>
+    <t>2010/8/1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2010/9/1</t>
+  </si>
+  <si>
+    <t>2010/10/1</t>
+  </si>
+  <si>
+    <t>2010/11/1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2010/12/1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2011/1/1</t>
+  </si>
+  <si>
+    <t>2011/2/1</t>
+  </si>
+  <si>
+    <t>2011/3/1</t>
+  </si>
+  <si>
+    <t>2011/4/1</t>
+  </si>
+  <si>
+    <t>2011/5/1</t>
+  </si>
+  <si>
+    <t>2011/6/1</t>
+  </si>
+  <si>
+    <t>2011/7/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2011/8/1</t>
+  </si>
+  <si>
+    <t>2011/9/1</t>
+  </si>
+  <si>
+    <t>2011/10/1</t>
+  </si>
+  <si>
+    <t>2011/11/1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2011/12/1</t>
+  </si>
+  <si>
+    <t>2012/1/1</t>
+  </si>
+  <si>
+    <t>2012/2/1</t>
+  </si>
+  <si>
+    <t>2012/3/1</t>
+  </si>
+  <si>
+    <t>2012/4/1</t>
+  </si>
+  <si>
+    <t>2012/5/1</t>
+  </si>
+  <si>
+    <t>2012/6/1</t>
+  </si>
+  <si>
+    <t>2012/7/1</t>
+  </si>
+  <si>
+    <t>2012/8/1</t>
+  </si>
+  <si>
+    <t>2012/9/1</t>
+  </si>
+  <si>
+    <t>2012/10/1</t>
+  </si>
+  <si>
+    <t>2012/11/1</t>
+  </si>
+  <si>
+    <t>2012/12/1</t>
+  </si>
+  <si>
+    <t>2013/1/1</t>
+  </si>
+  <si>
+    <t>2013/2/1</t>
+  </si>
+  <si>
+    <t>2013/3/1</t>
+  </si>
+  <si>
+    <t>2013/4/1</t>
+  </si>
+  <si>
+    <t>2013/5/1</t>
+  </si>
+  <si>
+    <t>2013/6/1</t>
+  </si>
+  <si>
+    <t>2013/7/1</t>
+  </si>
+  <si>
+    <t>2013/8/1</t>
+  </si>
+  <si>
+    <t>2013/9/1</t>
+  </si>
+  <si>
+    <t>2013/10/1</t>
+  </si>
+  <si>
+    <t>2013/11/1</t>
+  </si>
+  <si>
+    <t>2013/12/1</t>
+  </si>
+  <si>
+    <t>2014/1/1</t>
+  </si>
+  <si>
+    <t>2014/2/1</t>
+  </si>
+  <si>
+    <t>2014/3/1</t>
+  </si>
+  <si>
+    <t>2014/4/1</t>
+  </si>
+  <si>
+    <t>2014/5/1</t>
+  </si>
+  <si>
+    <t>2014/6/1</t>
+  </si>
+  <si>
+    <t>2014/7/1</t>
+  </si>
+  <si>
+    <t>2014/8/1</t>
+  </si>
+  <si>
+    <t>2014/9/1</t>
+  </si>
+  <si>
+    <t>2014/10/1</t>
+  </si>
+  <si>
+    <t>2014/11/1</t>
+  </si>
+  <si>
+    <t>2014/12/1</t>
+  </si>
+  <si>
+    <t>2015/1/1</t>
+  </si>
+  <si>
+    <t>2015/2/1</t>
+  </si>
+  <si>
+    <t>2015/3/1</t>
+  </si>
+  <si>
+    <t>2015/4/1</t>
+  </si>
+  <si>
+    <t>2015/5/1</t>
+  </si>
+  <si>
+    <t>2015/6/1</t>
+  </si>
+  <si>
+    <t>2015/7/1</t>
+  </si>
+  <si>
+    <t>2015/8/1</t>
+  </si>
+  <si>
+    <t>2015/9/1</t>
+  </si>
+  <si>
+    <t>2015/10/1</t>
+  </si>
+  <si>
+    <t>2015/11/1</t>
+  </si>
+  <si>
+    <t>2015/12/1</t>
+  </si>
+  <si>
+    <t>2016/1/1</t>
+  </si>
+  <si>
+    <t>2016/2/1</t>
+  </si>
+  <si>
+    <t>2016/3/1</t>
+  </si>
+  <si>
+    <t>2016/4/1</t>
+  </si>
+  <si>
+    <t>2016/5/1</t>
+  </si>
+  <si>
+    <t>2016/6/1</t>
+  </si>
+  <si>
+    <t>2016/7/1</t>
+  </si>
+  <si>
+    <t>2016/8/1</t>
+  </si>
+  <si>
+    <t>2016/9/1</t>
+  </si>
+  <si>
+    <t>2016/10/1</t>
+  </si>
+  <si>
+    <t>2016/11/1</t>
+  </si>
+  <si>
+    <t>2016/12/1</t>
+  </si>
+  <si>
+    <t>2017/1/1</t>
+  </si>
+  <si>
+    <t>2017/2/1</t>
+  </si>
+  <si>
+    <t>2017/3/1</t>
+  </si>
+  <si>
+    <t>2017/4/1</t>
+  </si>
+  <si>
+    <t>2017/5/1</t>
+  </si>
+  <si>
+    <t>2017/6/1</t>
+  </si>
+  <si>
+    <t>2017/7/1</t>
+  </si>
+  <si>
+    <t>2017/8/1</t>
+  </si>
+  <si>
+    <t>2017/9/1</t>
+  </si>
+  <si>
+    <t>2017/10/1</t>
+  </si>
+  <si>
+    <t>2017/11/1</t>
+  </si>
+  <si>
+    <t>2017/12/1</t>
+  </si>
+  <si>
+    <t>2018/1/1</t>
+  </si>
+  <si>
+    <t>2018/2/1</t>
+  </si>
+  <si>
+    <t>2018/3/1</t>
+  </si>
+  <si>
+    <t>2018/4/1</t>
+  </si>
+  <si>
+    <t>2018/5/1</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
-    <t>2000/12/1</t>
-  </si>
-  <si>
-    <t>2001/1/1</t>
-  </si>
-  <si>
-    <t>2001/2/1</t>
-  </si>
-  <si>
-    <t>2001/3/1</t>
-  </si>
-  <si>
-    <t>2001/4/1</t>
-  </si>
-  <si>
-    <t>2001/5/1</t>
-  </si>
-  <si>
-    <t>2001/6/1</t>
-  </si>
-  <si>
-    <t>2001/7/1</t>
-  </si>
-  <si>
-    <t>2001/8/1</t>
-  </si>
-  <si>
-    <t>2001/9/1</t>
-  </si>
-  <si>
-    <t>2001/10/1</t>
-  </si>
-  <si>
-    <t>2001/11/1</t>
-  </si>
-  <si>
-    <t>2001/12/1</t>
-  </si>
-  <si>
-    <t>2002/1/1</t>
-  </si>
-  <si>
-    <t>2002/2/1</t>
-  </si>
-  <si>
-    <t>2002/3/1</t>
-  </si>
-  <si>
-    <t>2002/4/1</t>
-  </si>
-  <si>
-    <t>2002/5/1</t>
-  </si>
-  <si>
-    <t>2002/6/1</t>
-  </si>
-  <si>
-    <t>2002/7/1</t>
-  </si>
-  <si>
-    <t>2002/8/1</t>
-  </si>
-  <si>
-    <t>2002/9/1</t>
-  </si>
-  <si>
-    <t>2002/10/1</t>
-  </si>
-  <si>
-    <t>2002/11/1</t>
-  </si>
-  <si>
-    <t>2002/12/1</t>
-  </si>
-  <si>
-    <t>2003/1/1</t>
-  </si>
-  <si>
-    <t>2003/2/1</t>
-  </si>
-  <si>
-    <t>2003/3/1</t>
-  </si>
-  <si>
-    <t>2003/4/1</t>
-  </si>
-  <si>
-    <t>2003/5/1</t>
-  </si>
-  <si>
-    <t>2003/6/1</t>
-  </si>
-  <si>
-    <t>2003/7/1</t>
-  </si>
-  <si>
-    <t>2003/8/1</t>
-  </si>
-  <si>
-    <t>2003/9/1</t>
-  </si>
-  <si>
-    <t>2003/10/1</t>
-  </si>
-  <si>
-    <t>2003/11/1</t>
-  </si>
-  <si>
-    <t>2003/12/1</t>
-  </si>
-  <si>
-    <t>2004/1/1</t>
-  </si>
-  <si>
-    <t>2004/2/1</t>
-  </si>
-  <si>
-    <t>2004/3/1</t>
-  </si>
-  <si>
-    <t>2004/4/1</t>
-  </si>
-  <si>
-    <t>2004/5/1</t>
-  </si>
-  <si>
-    <t>2004/6/1</t>
-  </si>
-  <si>
-    <t>2004/7/1</t>
-  </si>
-  <si>
-    <t>2004/8/1</t>
-  </si>
-  <si>
-    <t>2004/9/1</t>
-  </si>
-  <si>
-    <t>2004/10/1</t>
-  </si>
-  <si>
-    <t>2004/11/1</t>
-  </si>
-  <si>
-    <t>2004/12/1</t>
-  </si>
-  <si>
-    <t>2005/1/1</t>
-  </si>
-  <si>
-    <t>2005/2/1</t>
-  </si>
-  <si>
-    <t>2005/3/1</t>
-  </si>
-  <si>
-    <t>2005/4/1</t>
-  </si>
-  <si>
-    <t>2005/5/1</t>
-  </si>
-  <si>
-    <t>2005/6/1</t>
-  </si>
-  <si>
-    <t>2005/7/1</t>
-  </si>
-  <si>
-    <t>2005/8/1</t>
-  </si>
-  <si>
-    <t>2005/9/1</t>
-  </si>
-  <si>
-    <t>2005/10/1</t>
-  </si>
-  <si>
-    <t>2005/11/1</t>
-  </si>
-  <si>
-    <t>2005/12/1</t>
-  </si>
-  <si>
-    <t>2006/1/1</t>
-  </si>
-  <si>
-    <t>2006/2/1</t>
-  </si>
-  <si>
-    <t>2006/3/1</t>
-  </si>
-  <si>
-    <t>2006/4/1</t>
-  </si>
-  <si>
-    <t>2006/5/1</t>
-  </si>
-  <si>
-    <t>2006/6/1</t>
-  </si>
-  <si>
-    <t>2006/7/1</t>
-  </si>
-  <si>
-    <t>2006/8/1</t>
-  </si>
-  <si>
-    <t>2006/9/1</t>
-  </si>
-  <si>
-    <t>2006/10/1</t>
-  </si>
-  <si>
-    <t>2006/11/1</t>
-  </si>
-  <si>
-    <t>2006/12/1</t>
-  </si>
-  <si>
-    <t>2007/1/1</t>
-  </si>
-  <si>
-    <t>2007/2/1</t>
-  </si>
-  <si>
-    <t>2007/3/1</t>
-  </si>
-  <si>
-    <t>2007/4/1</t>
-  </si>
-  <si>
-    <t>2007/5/1</t>
-  </si>
-  <si>
-    <t>2007/6/1</t>
-  </si>
-  <si>
-    <t>2007/7/1</t>
-  </si>
-  <si>
-    <t>2007/8/1</t>
-  </si>
-  <si>
-    <t>2007/9/1</t>
-  </si>
-  <si>
-    <t>2007/10/1</t>
-  </si>
-  <si>
-    <t>2007/11/1</t>
-  </si>
-  <si>
-    <t>2007/12/1</t>
-  </si>
-  <si>
-    <t>2008/1/1</t>
-  </si>
-  <si>
-    <t>2008/2/1</t>
-  </si>
-  <si>
-    <t>2008/3/1</t>
-  </si>
-  <si>
-    <t>2008/4/1</t>
-  </si>
-  <si>
-    <t>2008/5/1</t>
-  </si>
-  <si>
-    <t>2008/6/1</t>
-  </si>
-  <si>
-    <t>2008/7/1</t>
-  </si>
-  <si>
-    <t>2008/8/1</t>
-  </si>
-  <si>
-    <t>2008/9/1</t>
-  </si>
-  <si>
-    <t>2008/10/1</t>
-  </si>
-  <si>
-    <t>2008/11/1</t>
-  </si>
-  <si>
-    <t>2008/12/1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2009/1/1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2009/2/1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2009/3/1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2009/4/1</t>
-  </si>
-  <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>2009/6/1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
-    <t>2009/8/1</t>
-  </si>
-  <si>
-    <t>2009/9/1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2009/10/1</t>
-  </si>
-  <si>
-    <t>2009/11/1</t>
-  </si>
-  <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>2010/3/1</t>
-  </si>
-  <si>
-    <t>2010/4/1</t>
-  </si>
-  <si>
-    <t>2010/5/1</t>
-  </si>
-  <si>
-    <t>2010/6/1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2010/7/1</t>
-  </si>
-  <si>
-    <t>2010/8/1</t>
-  </si>
-  <si>
-    <t>2010/9/1</t>
-  </si>
-  <si>
-    <t>2010/10/1</t>
-  </si>
-  <si>
-    <t>2010/11/1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2010/12/1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2011/1/1</t>
-  </si>
-  <si>
-    <t>2011/2/1</t>
-  </si>
-  <si>
-    <t>2011/3/1</t>
-  </si>
-  <si>
-    <t>2011/4/1</t>
-  </si>
-  <si>
-    <t>2011/5/1</t>
-  </si>
-  <si>
-    <t>2011/6/1</t>
-  </si>
-  <si>
-    <t>2011/7/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2011/8/1</t>
-  </si>
-  <si>
-    <t>2011/9/1</t>
-  </si>
-  <si>
-    <t>2011/10/1</t>
-  </si>
-  <si>
-    <t>2011/11/1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2011/12/1</t>
-  </si>
-  <si>
-    <t>2012/1/1</t>
-  </si>
-  <si>
-    <t>2012/2/1</t>
-  </si>
-  <si>
-    <t>2012/3/1</t>
-  </si>
-  <si>
-    <t>2012/4/1</t>
-  </si>
-  <si>
-    <t>2012/5/1</t>
-  </si>
-  <si>
-    <t>2012/6/1</t>
-  </si>
-  <si>
-    <t>2012/7/1</t>
-  </si>
-  <si>
-    <t>2012/8/1</t>
-  </si>
-  <si>
-    <t>2012/9/1</t>
-  </si>
-  <si>
-    <t>2012/10/1</t>
-  </si>
-  <si>
-    <t>2012/11/1</t>
-  </si>
-  <si>
-    <t>2012/12/1</t>
-  </si>
-  <si>
-    <t>2013/1/1</t>
-  </si>
-  <si>
-    <t>2013/2/1</t>
-  </si>
-  <si>
-    <t>2013/3/1</t>
-  </si>
-  <si>
-    <t>2013/4/1</t>
-  </si>
-  <si>
-    <t>2013/5/1</t>
-  </si>
-  <si>
-    <t>2013/6/1</t>
-  </si>
-  <si>
-    <t>2013/7/1</t>
-  </si>
-  <si>
-    <t>2013/8/1</t>
-  </si>
-  <si>
-    <t>2013/9/1</t>
-  </si>
-  <si>
-    <t>2013/10/1</t>
-  </si>
-  <si>
-    <t>2013/11/1</t>
-  </si>
-  <si>
-    <t>2013/12/1</t>
-  </si>
-  <si>
-    <t>2014/1/1</t>
-  </si>
-  <si>
-    <t>2014/2/1</t>
-  </si>
-  <si>
-    <t>2014/3/1</t>
-  </si>
-  <si>
-    <t>2014/4/1</t>
-  </si>
-  <si>
-    <t>2014/5/1</t>
-  </si>
-  <si>
-    <t>2014/6/1</t>
-  </si>
-  <si>
-    <t>2014/7/1</t>
-  </si>
-  <si>
-    <t>2014/8/1</t>
-  </si>
-  <si>
-    <t>2014/9/1</t>
-  </si>
-  <si>
-    <t>2014/10/1</t>
-  </si>
-  <si>
-    <t>2014/11/1</t>
-  </si>
-  <si>
-    <t>2014/12/1</t>
-  </si>
-  <si>
-    <t>2015/1/1</t>
-  </si>
-  <si>
-    <t>2015/2/1</t>
-  </si>
-  <si>
-    <t>2015/3/1</t>
-  </si>
-  <si>
-    <t>2015/4/1</t>
-  </si>
-  <si>
-    <t>2015/5/1</t>
-  </si>
-  <si>
-    <t>2015/6/1</t>
-  </si>
-  <si>
-    <t>2015/7/1</t>
-  </si>
-  <si>
-    <t>2015/8/1</t>
-  </si>
-  <si>
-    <t>2015/9/1</t>
-  </si>
-  <si>
-    <t>2015/10/1</t>
-  </si>
-  <si>
-    <t>2015/11/1</t>
-  </si>
-  <si>
-    <t>2015/12/1</t>
-  </si>
-  <si>
-    <t>2016/1/1</t>
-  </si>
-  <si>
-    <t>2016/2/1</t>
-  </si>
-  <si>
-    <t>2016/3/1</t>
-  </si>
-  <si>
-    <t>2016/4/1</t>
-  </si>
-  <si>
-    <t>2016/5/1</t>
-  </si>
-  <si>
-    <t>2016/6/1</t>
-  </si>
-  <si>
-    <t>2016/7/1</t>
-  </si>
-  <si>
-    <t>2016/8/1</t>
-  </si>
-  <si>
-    <t>2016/9/1</t>
-  </si>
-  <si>
-    <t>2016/10/1</t>
-  </si>
-  <si>
-    <t>2016/11/1</t>
-  </si>
-  <si>
-    <t>2016/12/1</t>
-  </si>
-  <si>
-    <t>2017/1/1</t>
-  </si>
-  <si>
-    <t>2017/2/1</t>
-  </si>
-  <si>
-    <t>2017/3/1</t>
-  </si>
-  <si>
-    <t>2017/4/1</t>
-  </si>
-  <si>
-    <t>2017/5/1</t>
-  </si>
-  <si>
-    <t>2017/6/1</t>
-  </si>
-  <si>
-    <t>2017/7/1</t>
-  </si>
-  <si>
-    <t>2017/8/1</t>
-  </si>
-  <si>
-    <t>2017/9/1</t>
-  </si>
-  <si>
-    <t>2017/10/1</t>
-  </si>
-  <si>
-    <t>2017/11/1</t>
-  </si>
-  <si>
-    <t>2017/12/1</t>
-  </si>
-  <si>
-    <t>2018/1/1</t>
-  </si>
-  <si>
-    <t>2018/2/1</t>
-  </si>
-  <si>
-    <t>2018/3/1</t>
-  </si>
-  <si>
-    <t>2018/4/1</t>
-  </si>
-  <si>
-    <t>2018/5/1</t>
+    <t>2018/6/1</t>
+  </si>
+  <si>
+    <t>2018/7/1</t>
+  </si>
+  <si>
+    <t>2018/8/1</t>
+  </si>
+  <si>
+    <t>2018/9/1</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2018/10/1</t>
+  </si>
+  <si>
+    <t>2018/11/1</t>
+  </si>
+  <si>
+    <t>2018/12/1</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>2018/6/1</t>
-  </si>
-  <si>
-    <t>2018/7/1</t>
-  </si>
-  <si>
-    <t>2018/8/1</t>
-  </si>
-  <si>
-    <t>2018/9/1</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>2018/10/1</t>
-  </si>
-  <si>
-    <t>2018/11/1</t>
-  </si>
-  <si>
-    <t>2018/12/1</t>
-  </si>
-  <si>
     <t>2019/1/1</t>
   </si>
   <si>
@@ -1435,15 +1438,12 @@
     <t>2021/8/1</t>
   </si>
   <si>
-    <t>41</t>
+    <t>42</t>
   </si>
   <si>
     <t>2021/9/1</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>2021/10/1</t>
   </si>
   <si>
@@ -1478,6 +1478,9 @@
   </si>
   <si>
     <t>46</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1934,15 +1937,15 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1977,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +2001,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2030,7 +2033,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,20 +2057,20 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2075,7 +2078,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -2083,15 +2086,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -2099,26 +2102,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
         <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2129,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2161,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2177,7 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2193,7 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2206,47 +2209,47 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2278,7 +2281,7 @@
         <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2286,7 +2289,7 @@
         <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2297,7 @@
         <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2318,7 +2321,7 @@
         <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,7 +2345,7 @@
         <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2358,7 +2361,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2417,7 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2430,7 +2433,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2441,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,55 +2465,55 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
         <v>89</v>
-      </c>
-      <c r="B73" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
         <v>92</v>
-      </c>
-      <c r="B75" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
         <v>96</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2566,7 +2569,7 @@
         <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,7 +2577,7 @@
         <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2606,7 +2609,7 @@
         <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2633,7 @@
         <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2705,7 @@
         <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2713,7 @@
         <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2729,7 @@
         <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2753,7 @@
         <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2801,7 @@
         <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +2817,7 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,7 +2825,7 @@
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2833,7 @@
         <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2878,7 +2881,7 @@
         <v>142</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +2897,7 @@
         <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,12 +2921,12 @@
         <v>147</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
         <v>53</v>
@@ -2931,10 +2934,10 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +2945,7 @@
         <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +2961,7 @@
         <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2966,7 +2969,7 @@
         <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,7 +2985,7 @@
         <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,7 +2993,7 @@
         <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,7 +3001,7 @@
         <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3006,7 +3009,7 @@
         <v>160</v>
       </c>
       <c r="B140" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3014,7 +3017,7 @@
         <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3046,7 +3049,7 @@
         <v>165</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3054,7 +3057,7 @@
         <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3062,7 +3065,7 @@
         <v>167</v>
       </c>
       <c r="B147" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3078,7 +3081,7 @@
         <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3086,7 +3089,7 @@
         <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3102,7 +3105,7 @@
         <v>172</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3110,7 +3113,7 @@
         <v>173</v>
       </c>
       <c r="B153" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3118,7 +3121,7 @@
         <v>174</v>
       </c>
       <c r="B154" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3126,7 +3129,7 @@
         <v>175</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3150,7 +3153,7 @@
         <v>178</v>
       </c>
       <c r="B158" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3182,7 +3185,7 @@
         <v>182</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3198,7 +3201,7 @@
         <v>185</v>
       </c>
       <c r="B164" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3214,7 +3217,7 @@
         <v>187</v>
       </c>
       <c r="B166" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3222,7 +3225,7 @@
         <v>188</v>
       </c>
       <c r="B167" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3230,7 +3233,7 @@
         <v>189</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3238,7 +3241,7 @@
         <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +3249,7 @@
         <v>191</v>
       </c>
       <c r="B170" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3254,7 +3257,7 @@
         <v>192</v>
       </c>
       <c r="B171" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3278,12 +3281,12 @@
         <v>196</v>
       </c>
       <c r="B174" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B175" t="s">
         <v>184</v>
@@ -3291,7 +3294,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B176" t="s">
         <v>153</v>
@@ -3299,7 +3302,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B177" t="s">
         <v>45</v>
@@ -3307,7 +3310,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B178" t="s">
         <v>194</v>
@@ -3315,7 +3318,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B179" t="s">
         <v>194</v>
@@ -3323,7 +3326,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B180" t="s">
         <v>184</v>
@@ -3331,7 +3334,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B181" t="s">
         <v>194</v>
@@ -3339,31 +3342,31 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B184" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B185" t="s">
         <v>53</v>
@@ -3371,15 +3374,15 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B186" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B187" t="s">
         <v>42</v>
@@ -3387,31 +3390,31 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B189" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -3419,7 +3422,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -3427,7 +3430,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -3435,15 +3438,15 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B194" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B195" t="s">
         <v>16</v>
@@ -3451,7 +3454,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B196" t="s">
         <v>25</v>
@@ -3459,7 +3462,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -3467,15 +3470,15 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B198" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -3483,7 +3486,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
@@ -3491,15 +3494,15 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B202" t="s">
         <v>16</v>
@@ -3507,7 +3510,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B203" t="s">
         <v>25</v>
@@ -3515,7 +3518,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
@@ -3523,7 +3526,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
@@ -3531,7 +3534,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
@@ -3539,7 +3542,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B207" t="s">
         <v>16</v>
@@ -3547,7 +3550,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B208" t="s">
         <v>16</v>
@@ -3555,7 +3558,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -3563,15 +3566,15 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B211" t="s">
         <v>20</v>
@@ -3579,23 +3582,23 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B212" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B214" t="s">
         <v>16</v>
@@ -3603,7 +3606,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B215" t="s">
         <v>25</v>
@@ -3611,7 +3614,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
@@ -3619,7 +3622,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B217" t="s">
         <v>25</v>
@@ -3627,7 +3630,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B218" t="s">
         <v>25</v>
@@ -3635,7 +3638,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B219" t="s">
         <v>25</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B220" t="s">
         <v>25</v>
@@ -3651,47 +3654,47 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B224" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B226" t="s">
         <v>42</v>
@@ -3699,23 +3702,23 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B227" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B229" t="s">
         <v>53</v>
@@ -3723,23 +3726,23 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B231" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B232" t="s">
         <v>42</v>
@@ -3747,7 +3750,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B233" t="s">
         <v>48</v>
@@ -3755,15 +3758,15 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B235" t="s">
         <v>42</v>
@@ -3771,7 +3774,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B236" t="s">
         <v>42</v>
@@ -3779,15 +3782,15 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B237" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B238" t="s">
         <v>53</v>
@@ -3795,7 +3798,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B239" t="s">
         <v>53</v>
@@ -3803,15 +3806,15 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B240" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B241" t="s">
         <v>42</v>
@@ -3819,31 +3822,31 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B242" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B243" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B244" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B245" t="s">
         <v>53</v>
@@ -3851,15 +3854,15 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B246" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B247" t="s">
         <v>7</v>
@@ -3867,39 +3870,39 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B248" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B249" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B250" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B252" t="s">
         <v>48</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B253" t="s">
         <v>25</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B254" t="s">
         <v>42</v>
@@ -3923,23 +3926,23 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B255" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B256" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B257" t="s">
         <v>48</v>
@@ -3947,23 +3950,23 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B258" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B259" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B260" t="s">
         <v>53</v>
@@ -3971,15 +3974,15 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B261" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B262" t="s">
         <v>53</v>
@@ -3987,7 +3990,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B263" t="s">
         <v>53</v>
@@ -3995,15 +3998,15 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -4011,15 +4014,15 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -4027,15 +4030,15 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B268" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B269" t="s">
         <v>25</v>
@@ -4043,15 +4046,15 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B270" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -4059,23 +4062,23 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B274" t="s">
         <v>16</v>
@@ -4083,7 +4086,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B275" t="s">
         <v>20</v>
@@ -4091,58 +4094,58 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>299</v>
+      </c>
+      <c r="B277" t="s">
         <v>300</v>
-      </c>
-      <c r="B277" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>301</v>
+      </c>
+      <c r="B278" t="s">
         <v>302</v>
-      </c>
-      <c r="B278" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>303</v>
+      </c>
+      <c r="B279" t="s">
         <v>304</v>
-      </c>
-      <c r="B279" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>305</v>
+      </c>
+      <c r="B280" t="s">
         <v>306</v>
-      </c>
-      <c r="B280" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B281" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>308</v>
+      </c>
+      <c r="B282" t="s">
         <v>309</v>
-      </c>
-      <c r="B282" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4150,23 +4153,23 @@
         <v>310</v>
       </c>
       <c r="B283" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B284" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>312</v>
+      </c>
+      <c r="B285" t="s">
         <v>313</v>
-      </c>
-      <c r="B285" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4182,7 +4185,7 @@
         <v>316</v>
       </c>
       <c r="B287" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4190,7 +4193,7 @@
         <v>317</v>
       </c>
       <c r="B288" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4198,36 +4201,36 @@
         <v>318</v>
       </c>
       <c r="B289" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B290" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>320</v>
+      </c>
+      <c r="B291" t="s">
         <v>321</v>
-      </c>
-      <c r="B291" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B292" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B293" t="s">
         <v>315</v>
@@ -4235,23 +4238,23 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B294" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>325</v>
+      </c>
+      <c r="B295" t="s">
         <v>326</v>
-      </c>
-      <c r="B295" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B296" t="s">
         <v>315</v>
@@ -4259,10 +4262,10 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>328</v>
+      </c>
+      <c r="B297" t="s">
         <v>329</v>
-      </c>
-      <c r="B297" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4278,7 +4281,7 @@
         <v>331</v>
       </c>
       <c r="B299" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4310,7 +4313,7 @@
         <v>337</v>
       </c>
       <c r="B303" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4334,7 +4337,7 @@
         <v>340</v>
       </c>
       <c r="B306" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4358,7 +4361,7 @@
         <v>344</v>
       </c>
       <c r="B309" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4366,7 +4369,7 @@
         <v>345</v>
       </c>
       <c r="B310" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4374,7 +4377,7 @@
         <v>346</v>
       </c>
       <c r="B311" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4406,7 +4409,7 @@
         <v>351</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4414,7 +4417,7 @@
         <v>352</v>
       </c>
       <c r="B316" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4422,7 +4425,7 @@
         <v>353</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4430,7 +4433,7 @@
         <v>354</v>
       </c>
       <c r="B318" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4438,7 +4441,7 @@
         <v>355</v>
       </c>
       <c r="B319" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4446,7 +4449,7 @@
         <v>356</v>
       </c>
       <c r="B320" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4454,7 +4457,7 @@
         <v>357</v>
       </c>
       <c r="B321" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4462,7 +4465,7 @@
         <v>358</v>
       </c>
       <c r="B322" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4470,7 +4473,7 @@
         <v>359</v>
       </c>
       <c r="B323" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4478,7 +4481,7 @@
         <v>360</v>
       </c>
       <c r="B324" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4486,7 +4489,7 @@
         <v>361</v>
       </c>
       <c r="B325" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4494,7 +4497,7 @@
         <v>362</v>
       </c>
       <c r="B326" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4502,7 +4505,7 @@
         <v>363</v>
       </c>
       <c r="B327" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4518,7 +4521,7 @@
         <v>365</v>
       </c>
       <c r="B329" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4526,7 +4529,7 @@
         <v>366</v>
       </c>
       <c r="B330" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4534,7 +4537,7 @@
         <v>367</v>
       </c>
       <c r="B331" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4542,7 +4545,7 @@
         <v>368</v>
       </c>
       <c r="B332" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4550,7 +4553,7 @@
         <v>369</v>
       </c>
       <c r="B333" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4574,7 +4577,7 @@
         <v>372</v>
       </c>
       <c r="B336" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4582,7 +4585,7 @@
         <v>373</v>
       </c>
       <c r="B337" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4590,7 +4593,7 @@
         <v>374</v>
       </c>
       <c r="B338" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4622,7 +4625,7 @@
         <v>378</v>
       </c>
       <c r="B342" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -4630,7 +4633,7 @@
         <v>379</v>
       </c>
       <c r="B343" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -4646,7 +4649,7 @@
         <v>381</v>
       </c>
       <c r="B345" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4654,7 +4657,7 @@
         <v>382</v>
       </c>
       <c r="B346" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4670,7 +4673,7 @@
         <v>384</v>
       </c>
       <c r="B348" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4678,7 +4681,7 @@
         <v>385</v>
       </c>
       <c r="B349" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -4686,7 +4689,7 @@
         <v>386</v>
       </c>
       <c r="B350" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4702,7 +4705,7 @@
         <v>388</v>
       </c>
       <c r="B352" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4718,7 +4721,7 @@
         <v>390</v>
       </c>
       <c r="B354" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4726,7 +4729,7 @@
         <v>391</v>
       </c>
       <c r="B355" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4742,7 +4745,7 @@
         <v>393</v>
       </c>
       <c r="B357" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4758,7 +4761,7 @@
         <v>395</v>
       </c>
       <c r="B359" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4766,7 +4769,7 @@
         <v>396</v>
       </c>
       <c r="B360" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -4774,7 +4777,7 @@
         <v>397</v>
       </c>
       <c r="B361" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -4790,7 +4793,7 @@
         <v>399</v>
       </c>
       <c r="B363" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4798,7 +4801,7 @@
         <v>400</v>
       </c>
       <c r="B364" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4806,7 +4809,7 @@
         <v>401</v>
       </c>
       <c r="B365" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4814,7 +4817,7 @@
         <v>402</v>
       </c>
       <c r="B366" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4830,7 +4833,7 @@
         <v>404</v>
       </c>
       <c r="B368" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4838,7 +4841,7 @@
         <v>405</v>
       </c>
       <c r="B369" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4846,7 +4849,7 @@
         <v>406</v>
       </c>
       <c r="B370" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4878,7 +4881,7 @@
         <v>410</v>
       </c>
       <c r="B374" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4894,7 +4897,7 @@
         <v>412</v>
       </c>
       <c r="B376" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4910,7 +4913,7 @@
         <v>414</v>
       </c>
       <c r="B378" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4934,7 +4937,7 @@
         <v>417</v>
       </c>
       <c r="B381" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -4974,7 +4977,7 @@
         <v>422</v>
       </c>
       <c r="B386" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5030,7 +5033,7 @@
         <v>430</v>
       </c>
       <c r="B393" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5046,7 +5049,7 @@
         <v>433</v>
       </c>
       <c r="B395" t="s">
-        <v>197</v>
+        <v>427</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5054,7 +5057,7 @@
         <v>434</v>
       </c>
       <c r="B396" t="s">
-        <v>197</v>
+        <v>427</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5062,20 +5065,20 @@
         <v>435</v>
       </c>
       <c r="B397" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>437</v>
+      </c>
+      <c r="B398" t="s">
         <v>436</v>
-      </c>
-      <c r="B398" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B399" t="s">
         <v>153</v>
@@ -5083,7 +5086,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B400" t="s">
         <v>184</v>
@@ -5091,31 +5094,31 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B401" t="s">
-        <v>197</v>
+        <v>427</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B402" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B403" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B404" t="s">
         <v>194</v>
@@ -5123,7 +5126,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B405" t="s">
         <v>45</v>
@@ -5131,55 +5134,55 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B406" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B407" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B408" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B409" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B410" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B411" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B412" t="s">
         <v>153</v>
@@ -5187,7 +5190,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B413" t="s">
         <v>20</v>
@@ -5195,39 +5198,39 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B414" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B415" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B416" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B417" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -5235,7 +5238,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
@@ -5243,15 +5246,15 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B420" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -5259,15 +5262,15 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B422" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B423" t="s">
         <v>42</v>
@@ -5275,15 +5278,15 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B424" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B425" t="s">
         <v>153</v>
@@ -5291,42 +5294,42 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B426" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B427" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B428" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B429" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>473</v>
+      </c>
+      <c r="B430" t="s">
         <v>472</v>
-      </c>
-      <c r="B430" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -5383,11 +5386,20 @@
       </c>
       <c r="B437" t="s">
         <v>485</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>486</v>
+      </c>
+      <c r="B438" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>